--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240107.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240107.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="43">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -72,40 +72,43 @@
     <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000077</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000084</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000078</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000085</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000079</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000086</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000080</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000071</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000081</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000082</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000076</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000080</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000071</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000077</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000081</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000078</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000082</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000083</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000074</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000084</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000085</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
   </si>
   <si>
     <t>MAT_A</t>
-  </si>
-  <si>
-    <t>MAT_B</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -561,13 +564,13 @@
         <v>17</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F2" s="2">
         <v>45299</v>
@@ -579,19 +582,19 @@
         <v>45300</v>
       </c>
       <c r="I2">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K2">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="L2">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="M2">
-        <v>0.9725</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -602,13 +605,13 @@
         <v>18</v>
       </c>
       <c r="C3" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
         <v>45299</v>
@@ -620,19 +623,19 @@
         <v>45300</v>
       </c>
       <c r="I3">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="L3">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="M3">
-        <v>0.9725</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -643,13 +646,13 @@
         <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E4" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F4" s="2">
         <v>45300</v>
@@ -661,19 +664,19 @@
         <v>45300</v>
       </c>
       <c r="I4">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="J4" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="L4">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="M4">
-        <v>0.9725</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -687,10 +690,10 @@
         <v>28</v>
       </c>
       <c r="D5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>45300</v>
@@ -702,19 +705,19 @@
         <v>45300</v>
       </c>
       <c r="I5">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="L5">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="M5">
-        <v>0.9725</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -725,57 +728,57 @@
         <v>21</v>
       </c>
       <c r="C6" t="s">
+        <v>29</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
+        <v>31</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I6">
         <v>27</v>
       </c>
-      <c r="D6" t="s">
-        <v>29</v>
-      </c>
-      <c r="E6" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="2">
-        <v>45301</v>
-      </c>
-      <c r="G6" s="2">
-        <v>45298</v>
-      </c>
-      <c r="H6" s="2">
-        <v>45300</v>
-      </c>
-      <c r="I6">
-        <v>2</v>
-      </c>
       <c r="J6" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="L6">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="M6">
-        <v>0.9725</v>
+        <v>0.975</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="G7" s="2">
         <v>45298</v>
@@ -784,19 +787,19 @@
         <v>45300</v>
       </c>
       <c r="I7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="J7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.9999999999999999</v>
+        <v>0.534</v>
       </c>
       <c r="L7">
-        <v>0.9999999999999999</v>
+        <v>0.534</v>
       </c>
       <c r="M7">
-        <v>0.9725</v>
+        <v>0.5225</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -804,16 +807,16 @@
         <v>14</v>
       </c>
       <c r="B8" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E8" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F8" s="2">
         <v>45301</v>
@@ -825,19 +828,19 @@
         <v>45300</v>
       </c>
       <c r="I8">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="J8" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.458</v>
+        <v>0.534</v>
       </c>
       <c r="L8">
-        <v>0.458</v>
+        <v>0.534</v>
       </c>
       <c r="M8">
-        <v>0.445</v>
+        <v>0.5225</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -845,16 +848,16 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
         <v>45301</v>
@@ -866,19 +869,19 @@
         <v>45300</v>
       </c>
       <c r="I9">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.458</v>
+        <v>0.534</v>
       </c>
       <c r="L9">
-        <v>0.458</v>
+        <v>0.534</v>
       </c>
       <c r="M9">
-        <v>0.445</v>
+        <v>0.5225</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -886,16 +889,16 @@
         <v>15</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D10" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F10" s="2">
         <v>45299</v>
@@ -907,10 +910,10 @@
         <v>45300</v>
       </c>
       <c r="I10">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J10" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -927,16 +930,16 @@
         <v>15</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D11" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F11" s="2">
         <v>45300</v>
@@ -948,10 +951,10 @@
         <v>45301</v>
       </c>
       <c r="I11">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="J11" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -968,16 +971,16 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E12" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F12" s="2">
         <v>45300</v>
@@ -989,10 +992,10 @@
         <v>45300</v>
       </c>
       <c r="I12">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="J12" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1009,16 +1012,16 @@
         <v>16</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F13" s="2">
         <v>45300</v>
@@ -1030,19 +1033,19 @@
         <v>45300</v>
       </c>
       <c r="I13">
-        <v>12</v>
+        <v>23</v>
       </c>
       <c r="J13" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K13">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="L13">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="M13">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="14" spans="1:13">
@@ -1050,16 +1053,16 @@
         <v>16</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F14" s="2">
         <v>45301</v>
@@ -1071,19 +1074,19 @@
         <v>45301</v>
       </c>
       <c r="I14">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="J14" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="K14">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="L14">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="M14">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
     </row>
   </sheetData>
@@ -1101,7 +1104,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1113,19 +1116,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1134,7 +1137,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1142,13 +1145,13 @@
         <v>45298</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1157,22 +1160,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="H2">
-        <v>99.99999999999999</v>
+        <v>99.80000000000001</v>
       </c>
       <c r="I2">
-        <v>194.5</v>
+        <v>195</v>
       </c>
       <c r="J2">
-        <v>0.9999999999999999</v>
+        <v>0.9980000000000001</v>
       </c>
       <c r="K2">
-        <v>0.9725</v>
+        <v>0.975</v>
       </c>
       <c r="L2" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1180,13 +1183,13 @@
         <v>45298</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1195,22 +1198,22 @@
         <v>14</v>
       </c>
       <c r="G3">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="H3">
-        <v>45.8</v>
+        <v>53.40000000000001</v>
       </c>
       <c r="I3">
-        <v>89</v>
+        <v>104.5</v>
       </c>
       <c r="J3">
-        <v>0.458</v>
+        <v>0.534</v>
       </c>
       <c r="K3">
-        <v>0.445</v>
+        <v>0.5225</v>
       </c>
       <c r="L3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1218,13 +1221,13 @@
         <v>45298</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -1248,7 +1251,7 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -1256,13 +1259,13 @@
         <v>45298</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1271,22 +1274,22 @@
         <v>16</v>
       </c>
       <c r="G5">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="H5">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="I5">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="J5">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="K5">
-        <v>0.65</v>
+        <v>0.9</v>
       </c>
       <c r="L5" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1304,7 +1307,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1316,7 +1319,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1324,13 +1327,13 @@
         <v>45298</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E2">
         <v>2</v>
@@ -1341,13 +1344,13 @@
         <v>45298</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>2</v>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240107.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240107.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
   <si>
     <t>date</t>
   </si>
@@ -58,6 +58,54 @@
   </si>
   <si>
     <t>truck_used</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>issue</t>
+  </si>
+  <si>
+    <t>severity</t>
+  </si>
+  <si>
+    <t>impact</t>
+  </si>
+  <si>
+    <t>missing_element</t>
+  </si>
+  <si>
+    <t>affected_records</t>
+  </si>
+  <si>
+    <t>route_breakdown</t>
+  </si>
+  <si>
+    <t>Global_DemandPriority</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for AO" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>Missing priority configuration for demand_element "net demand for normal" (affects 1 records: cross_node: 1). Records will be filtered out and not processed.</t>
+  </si>
+  <si>
+    <t>ERROR</t>
+  </si>
+  <si>
+    <t>Data Loss - 1 deployment plans excluded</t>
+  </si>
+  <si>
+    <t>net demand for AO</t>
+  </si>
+  <si>
+    <t>net demand for normal</t>
+  </si>
+  <si>
+    <t>cross_node: 1</t>
   </si>
 </sst>
 </file>
@@ -520,12 +568,85 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D3" t="s">
+        <v>24</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240107.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240107.xlsx
@@ -19,26 +19,113 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
+  <si>
+    <t>vehicle_uid</t>
+  </si>
+  <si>
+    <t>ori_deployment_uid</t>
+  </si>
+  <si>
+    <t>material</t>
+  </si>
+  <si>
+    <t>sending</t>
+  </si>
+  <si>
+    <t>receiving</t>
+  </si>
+  <si>
+    <t>planned_deployment_date</t>
+  </si>
+  <si>
+    <t>actual_ship_date</t>
+  </si>
+  <si>
+    <t>actual_delivery_date</t>
+  </si>
+  <si>
+    <t>delivery_qty</t>
+  </si>
+  <si>
+    <t>truck_type</t>
+  </si>
+  <si>
+    <t>truck_load_pct</t>
+  </si>
+  <si>
+    <t>WFR</t>
+  </si>
+  <si>
+    <t>VFR</t>
+  </si>
+  <si>
+    <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
+  </si>
+  <si>
+    <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
+  </si>
+  <si>
+    <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
+  </si>
+  <si>
+    <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000117</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000122</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000118</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000123</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000119</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000124</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000127</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000128</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000113</t>
+  </si>
+  <si>
+    <t>MAT_B</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
+  </si>
+  <si>
+    <t>PLANT_001</t>
+  </si>
+  <si>
+    <t>DC_001</t>
+  </si>
+  <si>
+    <t>DC_002</t>
+  </si>
+  <si>
+    <t>LARGE</t>
+  </si>
+  <si>
+    <t>MEDIUM</t>
+  </si>
   <si>
     <t>date</t>
   </si>
   <si>
-    <t>sending</t>
-  </si>
-  <si>
-    <t>receiving</t>
-  </si>
-  <si>
-    <t>truck_type</t>
-  </si>
-  <si>
     <t>vehicle_no</t>
   </si>
   <si>
-    <t>vehicle_uid</t>
-  </si>
-  <si>
     <t>total_units</t>
   </si>
   <si>
@@ -48,13 +135,10 @@
     <t>total_volume</t>
   </si>
   <si>
-    <t>WFR</t>
-  </si>
-  <si>
-    <t>VFR</t>
-  </si>
-  <si>
     <t>trigger</t>
+  </si>
+  <si>
+    <t>threshold</t>
   </si>
   <si>
     <t>truck_used</t>
@@ -112,6 +196,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -164,11 +251,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -463,19 +551,512 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G2" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H2" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I2">
+        <v>25</v>
+      </c>
+      <c r="J2" t="s">
+        <v>31</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D3" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" t="s">
+        <v>29</v>
+      </c>
+      <c r="F3" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G3" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H3" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I3">
+        <v>50</v>
+      </c>
+      <c r="J3" t="s">
+        <v>31</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>1</v>
+      </c>
+      <c r="M3">
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" t="s">
+        <v>19</v>
+      </c>
+      <c r="C4" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" t="s">
+        <v>28</v>
+      </c>
+      <c r="E4" t="s">
+        <v>29</v>
+      </c>
+      <c r="F4" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G4" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H4" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I4">
+        <v>25</v>
+      </c>
+      <c r="J4" t="s">
+        <v>31</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4">
+        <v>1</v>
+      </c>
+      <c r="M4">
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E5" t="s">
+        <v>29</v>
+      </c>
+      <c r="F5" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G5" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H5" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I5">
+        <v>10</v>
+      </c>
+      <c r="J5" t="s">
+        <v>31</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>28</v>
+      </c>
+      <c r="E6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F6" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G6" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H6" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I6">
+        <v>40</v>
+      </c>
+      <c r="J6" t="s">
+        <v>31</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>0.9875</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D7" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" t="s">
+        <v>29</v>
+      </c>
+      <c r="F7" s="2">
+        <v>45301</v>
+      </c>
+      <c r="G7" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H7" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I7">
+        <v>25</v>
+      </c>
+      <c r="J7" t="s">
+        <v>31</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>1</v>
+      </c>
+      <c r="M7">
+        <v>0.9875</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
+      <c r="A8" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" t="s">
+        <v>28</v>
+      </c>
+      <c r="E8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F8" s="2">
+        <v>45301</v>
+      </c>
+      <c r="G8" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H8" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I8">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8">
+        <v>1</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0.9875</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
+      <c r="A9" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>27</v>
+      </c>
+      <c r="D9" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="2">
+        <v>45299</v>
+      </c>
+      <c r="G9" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H9" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I9">
+        <v>50</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
+      <c r="A10" t="s">
+        <v>15</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
+        <v>28</v>
+      </c>
+      <c r="E10" t="s">
+        <v>30</v>
+      </c>
+      <c r="F10" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G10" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H10" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I10">
+        <v>10</v>
+      </c>
+      <c r="J10" t="s">
+        <v>32</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
+      <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s">
+        <v>30</v>
+      </c>
+      <c r="F11" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G11" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H11" s="2">
+        <v>45301</v>
+      </c>
+      <c r="I11">
+        <v>40</v>
+      </c>
+      <c r="J11" t="s">
+        <v>32</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>16</v>
+      </c>
+      <c r="B12" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D12" t="s">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45301</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I12">
+        <v>20</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L1"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -483,40 +1064,192 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
+      <c r="G1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
+        <v>1</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2">
+        <v>110</v>
+      </c>
+      <c r="H2">
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <v>195</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+      <c r="K2">
+        <v>0.975</v>
+      </c>
+      <c r="L2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>11</v>
+      <c r="F3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3">
+        <v>105</v>
+      </c>
+      <c r="H3">
+        <v>100</v>
+      </c>
+      <c r="I3">
+        <v>197.5</v>
+      </c>
+      <c r="J3">
+        <v>1</v>
+      </c>
+      <c r="K3">
+        <v>0.9875</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4" t="s">
+        <v>15</v>
+      </c>
+      <c r="G4">
+        <v>60</v>
+      </c>
+      <c r="H4">
+        <v>60</v>
+      </c>
+      <c r="I4">
+        <v>120</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>1</v>
+      </c>
+      <c r="L4" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B5" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" t="s">
+        <v>32</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -526,7 +1259,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -534,19 +1267,53 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B2" t="s">
+        <v>28</v>
+      </c>
+      <c r="C2" t="s">
+        <v>29</v>
+      </c>
+      <c r="D2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
+        <v>30</v>
+      </c>
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -576,74 +1343,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>42</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>43</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>16</v>
+        <v>44</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>17</v>
+        <v>45</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>18</v>
+        <v>46</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>19</v>
+        <v>47</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>50</v>
       </c>
       <c r="D2" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F2" t="s">
-        <v>26</v>
+        <v>54</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C3" t="s">
-        <v>23</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>52</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>53</v>
       </c>
       <c r="F3" t="s">
-        <v>27</v>
+        <v>55</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>28</v>
+        <v>56</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240107.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240107.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,40 +63,55 @@
     <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
-    <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
-  </si>
-  <si>
     <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
     <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000117</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000122</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000118</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000123</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000119</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000124</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000127</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000128</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000113</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000111</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000120</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000112</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000121</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000113</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000122</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-11|net demand for forecast|000114</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-11|net demand for forecast|000123</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000116</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000091</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000104</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000117</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000105</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000118</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-11|net demand for forecast|000119</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -551,7 +566,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -603,16 +618,16 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F2" s="2">
         <v>45299</v>
@@ -624,19 +639,19 @@
         <v>45300</v>
       </c>
       <c r="I2">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L2">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M2">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -644,16 +659,16 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E3" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F3" s="2">
         <v>45299</v>
@@ -665,19 +680,19 @@
         <v>45300</v>
       </c>
       <c r="I3">
-        <v>50</v>
+        <v>17</v>
       </c>
       <c r="J3" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M3">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -685,16 +700,16 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C4" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E4" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F4" s="2">
         <v>45300</v>
@@ -706,19 +721,19 @@
         <v>45300</v>
       </c>
       <c r="I4">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="J4" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M4">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -726,16 +741,16 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E5" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F5" s="2">
         <v>45300</v>
@@ -747,39 +762,39 @@
         <v>45300</v>
       </c>
       <c r="I5">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J5" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M5">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" t="s">
         <v>20</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D6" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F6" s="2">
-        <v>45300</v>
+        <v>45301</v>
       </c>
       <c r="G6" s="2">
         <v>45298</v>
@@ -788,36 +803,36 @@
         <v>45300</v>
       </c>
       <c r="I6">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="J6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M6">
-        <v>0.9875</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E7" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F7" s="2">
         <v>45301</v>
@@ -829,39 +844,39 @@
         <v>45300</v>
       </c>
       <c r="I7">
-        <v>25</v>
+        <v>17</v>
       </c>
       <c r="J7" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M7">
-        <v>0.9875</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E8" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="F8" s="2">
-        <v>45301</v>
+        <v>45302</v>
       </c>
       <c r="G8" s="2">
         <v>45298</v>
@@ -870,39 +885,39 @@
         <v>45300</v>
       </c>
       <c r="I8">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="J8" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L8">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M8">
-        <v>0.9875</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D9" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E9" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="F9" s="2">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="G9" s="2">
         <v>45298</v>
@@ -911,39 +926,39 @@
         <v>45300</v>
       </c>
       <c r="I9">
-        <v>50</v>
+        <v>7</v>
       </c>
       <c r="J9" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="L9">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="M9">
-        <v>1</v>
+        <v>0.97</v>
       </c>
     </row>
     <row r="10" spans="1:13">
       <c r="A10" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
         <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D10" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E10" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F10" s="2">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G10" s="2">
         <v>45298</v>
@@ -952,10 +967,10 @@
         <v>45300</v>
       </c>
       <c r="I10">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="J10" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -969,19 +984,19 @@
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="E11" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F11" s="2">
         <v>45300</v>
@@ -993,10 +1008,10 @@
         <v>45301</v>
       </c>
       <c r="I11">
-        <v>40</v>
+        <v>4</v>
       </c>
       <c r="J11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1010,43 +1025,248 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>26</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" t="s">
+        <v>33</v>
+      </c>
+      <c r="E12" t="s">
+        <v>35</v>
+      </c>
+      <c r="F12" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G12" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H12" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I12">
+        <v>19</v>
+      </c>
+      <c r="J12" t="s">
+        <v>37</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
+      <c r="A13" t="s">
+        <v>14</v>
+      </c>
+      <c r="B13" t="s">
+        <v>27</v>
+      </c>
+      <c r="C13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>33</v>
+      </c>
+      <c r="E13" t="s">
+        <v>35</v>
+      </c>
+      <c r="F13" s="2">
+        <v>45300</v>
+      </c>
+      <c r="G13" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H13" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I13">
+        <v>17</v>
+      </c>
+      <c r="J13" t="s">
+        <v>37</v>
+      </c>
+      <c r="K13">
+        <v>1</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
+      <c r="A14" t="s">
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E14" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="2">
+        <v>45301</v>
+      </c>
+      <c r="G14" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H14" s="2">
+        <v>45301</v>
+      </c>
+      <c r="I14">
+        <v>3</v>
+      </c>
+      <c r="J14" t="s">
+        <v>37</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>28</v>
+      </c>
+      <c r="C15" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" t="s">
+        <v>33</v>
+      </c>
+      <c r="E15" t="s">
+        <v>35</v>
+      </c>
+      <c r="F15" s="2">
+        <v>45301</v>
+      </c>
+      <c r="G15" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H15" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I15">
         <v>16</v>
       </c>
-      <c r="B12" t="s">
-        <v>25</v>
-      </c>
-      <c r="C12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D12" t="s">
-        <v>28</v>
-      </c>
-      <c r="E12" t="s">
+      <c r="J15" t="s">
+        <v>37</v>
+      </c>
+      <c r="K15">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L15">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M15">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
+      <c r="A16" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>29</v>
+      </c>
+      <c r="C16" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" t="s">
+        <v>33</v>
+      </c>
+      <c r="E16" t="s">
+        <v>35</v>
+      </c>
+      <c r="F16" s="2">
+        <v>45301</v>
+      </c>
+      <c r="G16" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H16" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I16">
+        <v>17</v>
+      </c>
+      <c r="J16" t="s">
+        <v>37</v>
+      </c>
+      <c r="K16">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L16">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M16">
+        <v>0.8333333333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
+      <c r="A17" t="s">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
         <v>30</v>
       </c>
-      <c r="F12" s="2">
-        <v>45301</v>
-      </c>
-      <c r="G12" s="2">
-        <v>45298</v>
-      </c>
-      <c r="H12" s="2">
-        <v>45300</v>
-      </c>
-      <c r="I12">
-        <v>20</v>
-      </c>
-      <c r="J12" t="s">
+      <c r="C17" t="s">
         <v>32</v>
       </c>
-      <c r="K12">
-        <v>1</v>
-      </c>
-      <c r="L12">
-        <v>1</v>
-      </c>
-      <c r="M12">
-        <v>1</v>
+      <c r="D17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E17" t="s">
+        <v>35</v>
+      </c>
+      <c r="F17" s="2">
+        <v>45302</v>
+      </c>
+      <c r="G17" s="2">
+        <v>45298</v>
+      </c>
+      <c r="H17" s="2">
+        <v>45300</v>
+      </c>
+      <c r="I17">
+        <v>17</v>
+      </c>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+      <c r="K17">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="L17">
+        <v>0.8333333333333334</v>
+      </c>
+      <c r="M17">
+        <v>0.8333333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -1056,7 +1276,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L5"/>
+  <dimension ref="A1:L4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1064,7 +1284,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1076,19 +1296,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>36</v>
+        <v>41</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>37</v>
+        <v>42</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1097,7 +1317,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1105,13 +1325,13 @@
         <v>45298</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1123,19 +1343,19 @@
         <v>110</v>
       </c>
       <c r="H2">
-        <v>100</v>
+        <v>99.60000000000001</v>
       </c>
       <c r="I2">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.9960000000000001</v>
       </c>
       <c r="K2">
-        <v>0.975</v>
+        <v>0.97</v>
       </c>
       <c r="L2" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1143,37 +1363,37 @@
         <v>45298</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="H3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="I3">
-        <v>197.5</v>
+        <v>120</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="K3">
-        <v>0.9875</v>
+        <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1181,75 +1401,37 @@
         <v>45298</v>
       </c>
       <c r="B4" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D4" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
       </c>
       <c r="G4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="H4">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="I4">
-        <v>120</v>
+        <v>100</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L4" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="A5" s="2">
-        <v>45298</v>
-      </c>
-      <c r="B5" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" t="s">
-        <v>30</v>
-      </c>
-      <c r="D5" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5" t="s">
-        <v>16</v>
-      </c>
-      <c r="G5">
-        <v>60</v>
-      </c>
-      <c r="H5">
-        <v>60</v>
-      </c>
-      <c r="I5">
-        <v>120</v>
-      </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-      <c r="K5">
-        <v>1</v>
-      </c>
-      <c r="L5" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -1267,7 +1449,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1279,7 +1461,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1287,16 +1469,16 @@
         <v>45298</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C2" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -1304,13 +1486,13 @@
         <v>45298</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1343,74 +1525,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
-        <v>41</v>
+        <v>46</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>42</v>
+        <v>47</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>43</v>
+        <v>48</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>52</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C2" t="s">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C3" t="s">
-        <v>51</v>
+        <v>56</v>
       </c>
       <c r="D3" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="F3" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240107.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240107.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -69,49 +69,40 @@
     <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000111</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000120</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000112</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000121</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000113</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000122</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-11|net demand for forecast|000114</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-11|net demand for forecast|000123</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000116</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000091</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000104</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000117</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000105</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-10|net demand for forecast|000118</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-11|net demand for forecast|000119</t>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000144</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000160</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000145</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000161</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000146</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000162</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-11|net demand for forecast|000147</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-11|net demand for forecast|000163</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000135</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000156</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000115</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000136</t>
   </si>
   <si>
     <t>MAT_B</t>
@@ -566,7 +557,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M17"/>
+  <dimension ref="A1:M14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -621,13 +612,13 @@
         <v>16</v>
       </c>
       <c r="C2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2" t="s">
         <v>31</v>
-      </c>
-      <c r="D2" t="s">
-        <v>33</v>
-      </c>
-      <c r="E2" t="s">
-        <v>34</v>
       </c>
       <c r="F2" s="2">
         <v>45299</v>
@@ -639,19 +630,19 @@
         <v>45300</v>
       </c>
       <c r="I2">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J2" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K2">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L2">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M2">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -662,13 +653,13 @@
         <v>17</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E3" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F3" s="2">
         <v>45299</v>
@@ -680,19 +671,19 @@
         <v>45300</v>
       </c>
       <c r="I3">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J3" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K3">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L3">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M3">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -703,13 +694,13 @@
         <v>18</v>
       </c>
       <c r="C4" t="s">
+        <v>28</v>
+      </c>
+      <c r="D4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" t="s">
         <v>31</v>
-      </c>
-      <c r="D4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" t="s">
-        <v>34</v>
       </c>
       <c r="F4" s="2">
         <v>45300</v>
@@ -721,19 +712,19 @@
         <v>45300</v>
       </c>
       <c r="I4">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J4" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K4">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L4">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M4">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -744,13 +735,13 @@
         <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E5" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F5" s="2">
         <v>45300</v>
@@ -762,19 +753,19 @@
         <v>45300</v>
       </c>
       <c r="I5">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K5">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L5">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M5">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -785,13 +776,13 @@
         <v>20</v>
       </c>
       <c r="C6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" t="s">
+        <v>30</v>
+      </c>
+      <c r="E6" t="s">
         <v>31</v>
-      </c>
-      <c r="D6" t="s">
-        <v>33</v>
-      </c>
-      <c r="E6" t="s">
-        <v>34</v>
       </c>
       <c r="F6" s="2">
         <v>45301</v>
@@ -803,19 +794,19 @@
         <v>45300</v>
       </c>
       <c r="I6">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J6" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K6">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L6">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M6">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="7" spans="1:13">
@@ -826,13 +817,13 @@
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D7" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E7" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F7" s="2">
         <v>45301</v>
@@ -844,19 +835,19 @@
         <v>45300</v>
       </c>
       <c r="I7">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K7">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L7">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M7">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="8" spans="1:13">
@@ -867,13 +858,13 @@
         <v>22</v>
       </c>
       <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
         <v>31</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>34</v>
       </c>
       <c r="F8" s="2">
         <v>45302</v>
@@ -885,19 +876,19 @@
         <v>45300</v>
       </c>
       <c r="I8">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="J8" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L8">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M8">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="9" spans="1:13">
@@ -908,13 +899,13 @@
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D9" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F9" s="2">
         <v>45302</v>
@@ -926,19 +917,19 @@
         <v>45300</v>
       </c>
       <c r="I9">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="K9">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="L9">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="M9">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -949,13 +940,13 @@
         <v>24</v>
       </c>
       <c r="C10" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" t="s">
         <v>32</v>
-      </c>
-      <c r="D10" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" t="s">
-        <v>35</v>
       </c>
       <c r="F10" s="2">
         <v>45299</v>
@@ -967,10 +958,10 @@
         <v>45300</v>
       </c>
       <c r="I10">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="J10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K10">
         <v>1</v>
@@ -990,16 +981,16 @@
         <v>25</v>
       </c>
       <c r="C11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E11" t="s">
         <v>32</v>
       </c>
-      <c r="D11" t="s">
-        <v>33</v>
-      </c>
-      <c r="E11" t="s">
-        <v>35</v>
-      </c>
       <c r="F11" s="2">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G11" s="2">
         <v>45298</v>
@@ -1008,10 +999,10 @@
         <v>45301</v>
       </c>
       <c r="I11">
-        <v>4</v>
+        <v>32</v>
       </c>
       <c r="J11" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K11">
         <v>1</v>
@@ -1025,22 +1016,22 @@
     </row>
     <row r="12" spans="1:13">
       <c r="A12" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" t="s">
+        <v>30</v>
+      </c>
+      <c r="E12" t="s">
         <v>32</v>
       </c>
-      <c r="D12" t="s">
-        <v>33</v>
-      </c>
-      <c r="E12" t="s">
-        <v>35</v>
-      </c>
       <c r="F12" s="2">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G12" s="2">
         <v>45298</v>
@@ -1049,10 +1040,10 @@
         <v>45300</v>
       </c>
       <c r="I12">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="J12" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K12">
         <v>1</v>
@@ -1066,19 +1057,19 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C13" t="s">
+        <v>29</v>
+      </c>
+      <c r="D13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" t="s">
         <v>32</v>
-      </c>
-      <c r="D13" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" t="s">
-        <v>35</v>
       </c>
       <c r="F13" s="2">
         <v>45300</v>
@@ -1090,10 +1081,10 @@
         <v>45300</v>
       </c>
       <c r="I13">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K13">
         <v>1</v>
@@ -1107,22 +1098,22 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" t="s">
+        <v>30</v>
+      </c>
+      <c r="E14" t="s">
         <v>32</v>
       </c>
-      <c r="D14" t="s">
-        <v>33</v>
-      </c>
-      <c r="E14" t="s">
-        <v>35</v>
-      </c>
       <c r="F14" s="2">
-        <v>45301</v>
+        <v>45300</v>
       </c>
       <c r="G14" s="2">
         <v>45298</v>
@@ -1131,10 +1122,10 @@
         <v>45301</v>
       </c>
       <c r="I14">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="J14" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="K14">
         <v>1</v>
@@ -1144,129 +1135,6 @@
       </c>
       <c r="M14">
         <v>1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>15</v>
-      </c>
-      <c r="B15" t="s">
-        <v>28</v>
-      </c>
-      <c r="C15" t="s">
-        <v>32</v>
-      </c>
-      <c r="D15" t="s">
-        <v>33</v>
-      </c>
-      <c r="E15" t="s">
-        <v>35</v>
-      </c>
-      <c r="F15" s="2">
-        <v>45301</v>
-      </c>
-      <c r="G15" s="2">
-        <v>45298</v>
-      </c>
-      <c r="H15" s="2">
-        <v>45300</v>
-      </c>
-      <c r="I15">
-        <v>16</v>
-      </c>
-      <c r="J15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L15">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="M15">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>29</v>
-      </c>
-      <c r="C16" t="s">
-        <v>32</v>
-      </c>
-      <c r="D16" t="s">
-        <v>33</v>
-      </c>
-      <c r="E16" t="s">
-        <v>35</v>
-      </c>
-      <c r="F16" s="2">
-        <v>45301</v>
-      </c>
-      <c r="G16" s="2">
-        <v>45298</v>
-      </c>
-      <c r="H16" s="2">
-        <v>45300</v>
-      </c>
-      <c r="I16">
-        <v>17</v>
-      </c>
-      <c r="J16" t="s">
-        <v>37</v>
-      </c>
-      <c r="K16">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L16">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="M16">
-        <v>0.8333333333333334</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
-      <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-      <c r="C17" t="s">
-        <v>32</v>
-      </c>
-      <c r="D17" t="s">
-        <v>33</v>
-      </c>
-      <c r="E17" t="s">
-        <v>35</v>
-      </c>
-      <c r="F17" s="2">
-        <v>45302</v>
-      </c>
-      <c r="G17" s="2">
-        <v>45298</v>
-      </c>
-      <c r="H17" s="2">
-        <v>45300</v>
-      </c>
-      <c r="I17">
-        <v>17</v>
-      </c>
-      <c r="J17" t="s">
-        <v>37</v>
-      </c>
-      <c r="K17">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="L17">
-        <v>0.8333333333333334</v>
-      </c>
-      <c r="M17">
-        <v>0.8333333333333334</v>
       </c>
     </row>
   </sheetData>
@@ -1284,7 +1152,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1296,19 +1164,19 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="F1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="J1" s="1" t="s">
         <v>11</v>
@@ -1317,7 +1185,7 @@
         <v>12</v>
       </c>
       <c r="L1" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:12">
@@ -1325,13 +1193,13 @@
         <v>45298</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1340,22 +1208,22 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>110</v>
+        <v>84</v>
       </c>
       <c r="H2">
-        <v>99.60000000000001</v>
+        <v>77.59999999999999</v>
       </c>
       <c r="I2">
-        <v>194</v>
+        <v>152</v>
       </c>
       <c r="J2">
-        <v>0.9960000000000001</v>
+        <v>0.7759999999999999</v>
       </c>
       <c r="K2">
-        <v>0.97</v>
+        <v>0.76</v>
       </c>
       <c r="L2" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="3" spans="1:12">
@@ -1363,13 +1231,13 @@
         <v>45298</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>1</v>
@@ -1393,7 +1261,7 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:12">
@@ -1401,13 +1269,13 @@
         <v>45298</v>
       </c>
       <c r="B4" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C4" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D4" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E4">
         <v>2</v>
@@ -1416,22 +1284,22 @@
         <v>15</v>
       </c>
       <c r="G4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="H4">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="I4">
-        <v>100</v>
+        <v>120</v>
       </c>
       <c r="J4">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="K4">
-        <v>0.8333333333333334</v>
+        <v>1</v>
       </c>
       <c r="L4" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
     </row>
   </sheetData>
@@ -1449,7 +1317,7 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="1" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>3</v>
@@ -1461,7 +1329,7 @@
         <v>9</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:5">
@@ -1469,13 +1337,13 @@
         <v>45298</v>
       </c>
       <c r="B2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D2" t="s">
         <v>33</v>
-      </c>
-      <c r="C2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D2" t="s">
-        <v>36</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -1486,13 +1354,13 @@
         <v>45298</v>
       </c>
       <c r="B3" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -1525,74 +1393,74 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="H1" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" t="s">
         <v>54</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E2" t="s">
         <v>55</v>
       </c>
-      <c r="D2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
+        <v>56</v>
+      </c>
+      <c r="G2">
+        <v>1</v>
+      </c>
+      <c r="H2" t="s">
         <v>58</v>
-      </c>
-      <c r="F2" t="s">
-        <v>59</v>
-      </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" t="s">
         <v>54</v>
       </c>
-      <c r="C3" t="s">
-        <v>56</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
         <v>57</v>
       </c>
-      <c r="E3" t="s">
+      <c r="G3">
+        <v>1</v>
+      </c>
+      <c r="H3" t="s">
         <v>58</v>
-      </c>
-      <c r="F3" t="s">
-        <v>60</v>
-      </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
-      <c r="H3" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>

--- a/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240107.xlsx
+++ b/e2e_test_output_basic_1week_integration/simulation_output/module6/Module6Output_20240107.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="149" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="59">
   <si>
     <t>vehicle_uid</t>
   </si>
@@ -63,52 +63,52 @@
     <t>20240107-PLANT_001-DC_001-LARGE-#1</t>
   </si>
   <si>
+    <t>20240107-PLANT_001-DC_001-LARGE-#2</t>
+  </si>
+  <si>
     <t>20240107-PLANT_001-DC_002-MEDIUM-#1</t>
   </si>
   <si>
     <t>20240107-PLANT_001-DC_002-MEDIUM-#2</t>
   </si>
   <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000144</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000160</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000145</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000161</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000146</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000162</t>
-  </si>
-  <si>
-    <t>MAT_B|PLANT_001|DC_001|2024-01-11|net demand for forecast|000147</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_001|2024-01-11|net demand for forecast|000163</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000135</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000156</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000115</t>
-  </si>
-  <si>
-    <t>MAT_A|PLANT_001|DC_002|2024-01-09|net demand for forecast|000136</t>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-08|net demand for forecast|000132</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-08|net demand for forecast|000137</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-09|net demand for forecast|000133</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-09|net demand for forecast|000138</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-10|net demand for forecast|000134</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-10|net demand for forecast|000139</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_001|2024-01-11|net demand for forecast|000135</t>
+  </si>
+  <si>
+    <t>MAT_B|PLANT_001|DC_001|2024-01-11|net demand for forecast|000140</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000087</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000107</t>
+  </si>
+  <si>
+    <t>MAT_A|PLANT_001|DC_002|2024-01-08|net demand for forecast|000128</t>
+  </si>
+  <si>
+    <t>MAT_A</t>
   </si>
   <si>
     <t>MAT_B</t>
-  </si>
-  <si>
-    <t>MAT_A</t>
   </si>
   <si>
     <t>PLANT_001</t>
@@ -609,7 +609,7 @@
         <v>13</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C2" t="s">
         <v>28</v>
@@ -630,19 +630,19 @@
         <v>45300</v>
       </c>
       <c r="I2">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J2" t="s">
         <v>33</v>
       </c>
       <c r="K2">
-        <v>0.7759999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="L2">
-        <v>0.7759999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="M2">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="3" spans="1:13">
@@ -650,7 +650,7 @@
         <v>13</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s">
         <v>29</v>
@@ -671,19 +671,19 @@
         <v>45300</v>
       </c>
       <c r="I3">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J3" t="s">
         <v>33</v>
       </c>
       <c r="K3">
-        <v>0.7759999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="L3">
-        <v>0.7759999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="M3">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="4" spans="1:13">
@@ -691,7 +691,7 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
         <v>28</v>
@@ -712,19 +712,19 @@
         <v>45300</v>
       </c>
       <c r="I4">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="J4" t="s">
         <v>33</v>
       </c>
       <c r="K4">
-        <v>0.7759999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="L4">
-        <v>0.7759999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="M4">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="5" spans="1:13">
@@ -732,7 +732,7 @@
         <v>13</v>
       </c>
       <c r="B5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C5" t="s">
         <v>29</v>
@@ -753,19 +753,19 @@
         <v>45300</v>
       </c>
       <c r="I5">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="J5" t="s">
         <v>33</v>
       </c>
       <c r="K5">
-        <v>0.7759999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="L5">
-        <v>0.7759999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="M5">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -773,7 +773,7 @@
         <v>13</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>28</v>
@@ -794,30 +794,30 @@
         <v>45300</v>
       </c>
       <c r="I6">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="J6" t="s">
         <v>33</v>
       </c>
       <c r="K6">
-        <v>0.7759999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="L6">
-        <v>0.7759999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="M6">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B7" t="s">
         <v>21</v>
       </c>
       <c r="C7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
         <v>30</v>
@@ -835,30 +835,30 @@
         <v>45300</v>
       </c>
       <c r="I7">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="J7" t="s">
         <v>33</v>
       </c>
       <c r="K7">
-        <v>0.7759999999999999</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="L7">
-        <v>0.7759999999999999</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="M7">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B8" t="s">
         <v>22</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
         <v>30</v>
@@ -867,7 +867,7 @@
         <v>31</v>
       </c>
       <c r="F8" s="2">
-        <v>45302</v>
+        <v>45301</v>
       </c>
       <c r="G8" s="2">
         <v>45298</v>
@@ -876,30 +876,30 @@
         <v>45300</v>
       </c>
       <c r="I8">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="J8" t="s">
         <v>33</v>
       </c>
       <c r="K8">
-        <v>0.7759999999999999</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="L8">
-        <v>0.7759999999999999</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="M8">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" t="s">
         <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" t="s">
         <v>30</v>
@@ -917,19 +917,19 @@
         <v>45300</v>
       </c>
       <c r="I9">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s">
         <v>33</v>
       </c>
       <c r="K9">
-        <v>0.7759999999999999</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="L9">
-        <v>0.7759999999999999</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="M9">
-        <v>0.76</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="10" spans="1:13">
@@ -946,10 +946,10 @@
         <v>30</v>
       </c>
       <c r="E10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F10" s="2">
-        <v>45299</v>
+        <v>45302</v>
       </c>
       <c r="G10" s="2">
         <v>45298</v>
@@ -958,30 +958,30 @@
         <v>45300</v>
       </c>
       <c r="I10">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="J10" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="M10">
-        <v>1</v>
+        <v>0.62</v>
       </c>
     </row>
     <row r="11" spans="1:13">
       <c r="A11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B11" t="s">
         <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D11" t="s">
         <v>30</v>
@@ -999,7 +999,7 @@
         <v>45301</v>
       </c>
       <c r="I11">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="J11" t="s">
         <v>34</v>
@@ -1019,10 +1019,10 @@
         <v>15</v>
       </c>
       <c r="B12" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D12" t="s">
         <v>30</v>
@@ -1040,7 +1040,7 @@
         <v>45300</v>
       </c>
       <c r="I12">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J12" t="s">
         <v>34</v>
@@ -1057,13 +1057,13 @@
     </row>
     <row r="13" spans="1:13">
       <c r="A13" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
       </c>
       <c r="C13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D13" t="s">
         <v>30</v>
@@ -1072,7 +1072,7 @@
         <v>32</v>
       </c>
       <c r="F13" s="2">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G13" s="2">
         <v>45298</v>
@@ -1081,7 +1081,7 @@
         <v>45300</v>
       </c>
       <c r="I13">
-        <v>39</v>
+        <v>58</v>
       </c>
       <c r="J13" t="s">
         <v>34</v>
@@ -1098,13 +1098,13 @@
     </row>
     <row r="14" spans="1:13">
       <c r="A14" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B14" t="s">
         <v>27</v>
       </c>
       <c r="C14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
@@ -1113,7 +1113,7 @@
         <v>32</v>
       </c>
       <c r="F14" s="2">
-        <v>45300</v>
+        <v>45299</v>
       </c>
       <c r="G14" s="2">
         <v>45298</v>
@@ -1122,7 +1122,7 @@
         <v>45301</v>
       </c>
       <c r="I14">
-        <v>20</v>
+        <v>2</v>
       </c>
       <c r="J14" t="s">
         <v>34</v>
@@ -1144,7 +1144,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:L5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1208,19 +1208,19 @@
         <v>13</v>
       </c>
       <c r="G2">
-        <v>84</v>
+        <v>106</v>
       </c>
       <c r="H2">
-        <v>77.59999999999999</v>
+        <v>99.59999999999999</v>
       </c>
       <c r="I2">
-        <v>152</v>
+        <v>196</v>
       </c>
       <c r="J2">
-        <v>0.7759999999999999</v>
+        <v>0.996</v>
       </c>
       <c r="K2">
-        <v>0.76</v>
+        <v>0.98</v>
       </c>
       <c r="L2" t="s">
         <v>41</v>
@@ -1234,31 +1234,31 @@
         <v>30</v>
       </c>
       <c r="C3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3" t="s">
         <v>14</v>
       </c>
       <c r="G3">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="H3">
-        <v>60</v>
+        <v>63.59999999999999</v>
       </c>
       <c r="I3">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.6359999999999999</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>0.62</v>
       </c>
       <c r="L3" t="s">
         <v>41</v>
@@ -1278,7 +1278,7 @@
         <v>34</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
         <v>15</v>
@@ -1299,6 +1299,44 @@
         <v>1</v>
       </c>
       <c r="L4" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="A5" s="2">
+        <v>45298</v>
+      </c>
+      <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D5" t="s">
+        <v>34</v>
+      </c>
+      <c r="E5">
+        <v>2</v>
+      </c>
+      <c r="F5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5">
+        <v>60</v>
+      </c>
+      <c r="H5">
+        <v>60</v>
+      </c>
+      <c r="I5">
+        <v>120</v>
+      </c>
+      <c r="J5">
+        <v>1</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5" t="s">
         <v>41</v>
       </c>
     </row>
@@ -1346,7 +1384,7 @@
         <v>33</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5">
